--- a/BdProject.xlsx
+++ b/BdProject.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="схема БД" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>CongratulationUser</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -53,9 +51,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>Congratulation</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -63,6 +58,54 @@
   </si>
   <si>
     <t>FromUserName</t>
+  </si>
+  <si>
+    <t>cu_CongratulationUser</t>
+  </si>
+  <si>
+    <t>cu_Gift</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>AnnotationText</t>
+  </si>
+  <si>
+    <t>cu_CongratulationCard</t>
+  </si>
+  <si>
+    <t>cu_UserCard</t>
+  </si>
+  <si>
+    <t>cu_CongratulationUserID</t>
+  </si>
+  <si>
+    <t>cu_CongratulationCardID</t>
+  </si>
+  <si>
+    <t>cu_UserGift</t>
+  </si>
+  <si>
+    <t>cu_GiftID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cu_Photo</t>
+  </si>
+  <si>
+    <t>PhotoUrl</t>
+  </si>
+  <si>
+    <t>PhotoText</t>
+  </si>
+  <si>
+    <t>пользователь регистрируется</t>
+  </si>
+  <si>
+    <t>создаёт поздравительную открытку по шаблону</t>
   </si>
 </sst>
 </file>
@@ -381,84 +424,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/BdProject.xlsx
+++ b/BdProject.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rybchenko\myProjects\congratulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\webProgects\congratulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="схема БД" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="схема страницы сайта" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -102,16 +102,94 @@
     <t>PhotoText</t>
   </si>
   <si>
-    <t>пользователь регистрируется</t>
-  </si>
-  <si>
-    <t>создаёт поздравительную открытку по шаблону</t>
+    <t>с днем рождения</t>
+  </si>
+  <si>
+    <t>Иван Иванович</t>
+  </si>
+  <si>
+    <t>Photo1</t>
+  </si>
+  <si>
+    <t>Photo2</t>
+  </si>
+  <si>
+    <t>Photo3</t>
+  </si>
+  <si>
+    <t>Photo4</t>
+  </si>
+  <si>
+    <t>поздравляю</t>
+  </si>
+  <si>
+    <t>Петя</t>
+  </si>
+  <si>
+    <t>Саша</t>
+  </si>
+  <si>
+    <t>Надя</t>
+  </si>
+  <si>
+    <t>Ира</t>
+  </si>
+  <si>
+    <t>подарок1</t>
+  </si>
+  <si>
+    <t>подарок2</t>
+  </si>
+  <si>
+    <t>подарок3</t>
+  </si>
+  <si>
+    <t>подарок4</t>
+  </si>
+  <si>
+    <t>подарок5</t>
+  </si>
+  <si>
+    <t>подарок6</t>
+  </si>
+  <si>
+    <t>подарок7</t>
+  </si>
+  <si>
+    <t>подарок8</t>
+  </si>
+  <si>
+    <t>подарок9</t>
+  </si>
+  <si>
+    <t>подарок10</t>
+  </si>
+  <si>
+    <t>подарок11</t>
+  </si>
+  <si>
+    <t>подарок12</t>
+  </si>
+  <si>
+    <t>подарок13</t>
+  </si>
+  <si>
+    <t>подарок14</t>
+  </si>
+  <si>
+    <t>подарок15</t>
+  </si>
+  <si>
+    <t>подарок16</t>
+  </si>
+  <si>
+    <t>фото коллаж</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,15 +200,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -138,12 +234,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -619,25 +874,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A8:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>